--- a/Output/Organized_Results/Feature_Importance_Results.xlsx
+++ b/Output/Organized_Results/Feature_Importance_Results.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Confusion Matrix 2'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Confusion Matrix 3'!$A$1:$C$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Confusion Matrix 4'!$A$1:$C$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Misclassifications'!$A$1:$A$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Misclassifications'!$A$1:$A$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Misclassifications_1'!$A$1:$E$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Model Performance'!$A$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Top Features'!$A$1:$B$26</definedName>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -940,376 +940,216 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>0.6072978999999999</v>
+        <v>0.66989464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="n">
-        <v>0.73963106</v>
+        <v>0.711496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>0.46948206</v>
+        <v>0.6635022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="n">
-        <v>0.5730224</v>
+        <v>0.5449302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>0.5381262</v>
+        <v>0.5422413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n">
-        <v>0.69078004</v>
+        <v>0.586122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>0.6732574</v>
+        <v>0.721017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
-        <v>0.6531854</v>
+        <v>0.5673443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>0.6519667</v>
+        <v>0.6196851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
-        <v>0.8277612</v>
+        <v>0.40239555</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>0.7034300999999999</v>
+        <v>0.48266736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
-        <v>0.5100660299999999</v>
+        <v>0.4342674</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>0.5923725</v>
+        <v>0.6321939</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
-        <v>0.8546184999999999</v>
+        <v>0.16854028</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>0.7121105</v>
+        <v>0.47554952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
-        <v>0.43737084</v>
+        <v>0.78934014</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>0.6384223999999999</v>
+        <v>0.24925476</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
-        <v>0.60977465</v>
+        <v>0.7807182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>0.49256104</v>
+        <v>0.5528495</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n">
-        <v>0.4374337</v>
+        <v>0.5580708</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>0.7371882</v>
+        <v>0.55533606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n">
-        <v>0.57752454</v>
+        <v>0.53136975</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>0.65217716</v>
+        <v>0.44998685</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n">
-        <v>0.7273326</v>
+        <v>0.7677162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>0.66353756</v>
+        <v>0.7223228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n">
-        <v>0.6017443</v>
+        <v>0.5903481</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>0.5571795</v>
+        <v>0.7194498</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n">
-        <v>0.75622016</v>
+        <v>0.77506274</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>0.8642836</v>
+        <v>0.5556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n">
-        <v>0.49450192</v>
+        <v>0.73935896</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>0.5256526500000001</v>
+        <v>0.33203986</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n">
-        <v>0.6843778</v>
+        <v>0.6856162</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>0.6948086999999999</v>
+        <v>0.7765227</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n">
-        <v>0.49616006</v>
+        <v>0.7422898</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>0.5222675</v>
+        <v>0.47980428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n">
-        <v>0.5778528000000001</v>
+        <v>0.8285929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>0.53639567</v>
+        <v>0.54480493</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n">
-        <v>0.6176557</v>
+        <v>0.5928374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>0.81105274</v>
+        <v>0.7401456</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n">
-        <v>0.53376067</v>
+        <v>0.19759417</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>0.5858223</v>
+        <v>0.45832705</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n">
-        <v>0.5533538</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>0.69100356</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="n">
-        <v>0.49714595</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>0.75099</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="n">
-        <v>0.6034138</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>0.5606062000000001</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="n">
-        <v>0.69405496</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>0.76098925</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="n">
-        <v>0.56805944</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>0.29969254</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="4" t="n">
-        <v>0.6393453</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>0.8060216</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="4" t="n">
-        <v>0.5707946</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="n">
-        <v>0.55651635</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="4" t="n">
-        <v>0.6178738</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>0.476332</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="4" t="n">
-        <v>0.31209913</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="n">
-        <v>0.3490853</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="4" t="n">
-        <v>0.5198958</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>0.40936086</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="n">
-        <v>0.5190747</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="n">
-        <v>0.73320174</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="n">
-        <v>0.7828583</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="n">
-        <v>0.56543946</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="4" t="n">
-        <v>0.63580394</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="n">
-        <v>0.54424983</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="4" t="n">
-        <v>0.47910526</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="n">
-        <v>0.6623144</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4" t="n">
-        <v>0.41854742</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="n">
-        <v>0.43447462</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="n">
-        <v>0.5794699</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="n">
-        <v>0.7956515</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="4" t="n">
-        <v>0.5080141</v>
+        <v>0.6978382</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A75"/>
+  <autoFilter ref="A1:A43"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1368,16 +1208,16 @@
         <v>242</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>69.42148760330579</v>
+        <v>82.64462809917356</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>30.57851239669421</v>
+        <v>17.35537190082645</v>
       </c>
     </row>
   </sheetData>
@@ -1457,19 +1297,19 @@
         </is>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.6942148760330579</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.6703910614525139</v>
+        <v>0.8</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9185185185185184</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.7643312101910829</v>
+        <v>0.8551724137931035</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>0.7938386985115957</v>
+        <v>0.9132571824160608</v>
       </c>
     </row>
     <row r="3">
@@ -1532,19 +1372,19 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0.6942148760330579</v>
+        <v>0.6900826446280992</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.6703910614525139</v>
+        <v>0.6630434782608695</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9037037037037036</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.7643312101910829</v>
+        <v>0.7648902821316614</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7938386985115957</v>
+        <v>0.7956386292834892</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1408,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="49" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -1587,251 +1427,251 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Union Share 1-25%</t>
+          <t>ROI Measured</t>
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>229</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Manager Incentive - Other Form of Recognition</t>
+          <t>Negative ROI</t>
         </is>
       </c>
       <c r="B3" s="6" t="n">
-        <v>163</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Selection Criteria: Assessment of Skills</t>
+          <t>External Redeployment</t>
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>146</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Firm Size (Numeric)</t>
+          <t>Cross-departmental Networks</t>
         </is>
       </c>
       <c r="B5" s="6" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Firm Size: 2500-9999</t>
+          <t>Union Share 1-25%</t>
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Target Function: IT not selected</t>
+          <t>Needed share soft skill</t>
         </is>
       </c>
       <c r="B7" s="6" t="n">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Program with long hours</t>
+          <t>Total Nr skills needed</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Program End Year (Clone)</t>
+          <t>Internal Redeployment</t>
         </is>
       </c>
       <c r="B9" s="6" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Included Skills: Financial Management</t>
+          <t>Career Transition Skills - Included in Training</t>
         </is>
       </c>
       <c r="B10" s="5" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>External Designer - Trade Association</t>
+          <t>Digital Skills Needed</t>
         </is>
       </c>
       <c r="B11" s="6" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>Expected Participation</t>
+          <t>Share Needed Digital Skills</t>
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>110</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sales and Marketing Skills Needed</t>
+          <t>Program Effectiveness</t>
         </is>
       </c>
       <c r="B13" s="6" t="n">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Financial Management Skills - Included in Training</t>
+          <t>Program reports negative ROI</t>
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Firm has subsidies</t>
+          <t>Contributing to Learning Org Culture</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Program targets middle management and employees</t>
+          <t>Medium Firm Size (100-999)</t>
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Challenge - Program takeup</t>
+          <t>Mgmt Skills Needed</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>Worker Incentive - Non-financial (group)</t>
+          <t>Sum of Trained Skills</t>
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of participants</t>
+          <t>Selection Criteria: Assessment of Skills</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>Customer Service Skills Needed</t>
+          <t>Fulfilling CSR Requirement</t>
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Medium Firm Size (100-999)</t>
+          <t>Target Function: IT not selected</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>Program Effectiveness</t>
+          <t>Program with long hours</t>
         </is>
       </c>
       <c r="B22" s="5" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Design - Middle Managers</t>
+          <t>Firm Size (Numeric)</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>Advocate HR</t>
+          <t>Funded by Union</t>
         </is>
       </c>
       <c r="B24" s="5" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Soft cluster</t>
+          <t>size_5_000_-_9_999</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>Manager Incentive - Financial</t>
+          <t>Funded by Org</t>
         </is>
       </c>
       <c r="B26" s="5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
